--- a/biology/Botanique/Cephalanthera_rubra/Cephalanthera_rubra.xlsx
+++ b/biology/Botanique/Cephalanthera_rubra/Cephalanthera_rubra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalanthera rubra
 Cephalanthera rubra, la Céphalanthère rouge, est une espèce de plantes herbacées vivaces de la famille des Orchidacées et du genre Cephalanthera. Elle est quasiment endémique d'Europe.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante grêle, aux tiges teintées de rouge, aux feuilles étroites, lancéolées, aux nombreuses bractées. Les fleurs, organisées en épi simple, sont rose vif ou pourprées, les sépales et pétales de même forme, pointus, les sépales latéraux souvent écartés. Le labelle porte à sa base des rides jaunes. Il n'y a pas d'éperon.
 </t>
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante vivace hémicryptophyte à floraison hermaphrodite dont certaines populations ont une reproduction entomophile et d'autres végétative. En France, elle fleurit d'avril à juillet. Ses fruits sont des capsules disséminant de minuscules graine par anémochorie[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace hémicryptophyte à floraison hermaphrodite dont certaines populations ont une reproduction entomophile et d'autres végétative. En France, elle fleurit d'avril à juillet. Ses fruits sont des capsules disséminant de minuscules graine par anémochorie,.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce apprécie les sous-bois herbacés médioeuropéens, basophiles, montagnards, des adrets (bois de hêtres, pentes rocheuses ombragées sur substrat calcaire)[1].
-Cette espèce est présente sur l'ensemble de l'Europe, au Maroc, en Algérie, ainsi que les pays bordant la mer Noire et la mer Caspienne[3]. En France, elle est assez rare, plutôt présente dans le Sud-Est[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce apprécie les sous-bois herbacés médioeuropéens, basophiles, montagnards, des adrets (bois de hêtres, pentes rocheuses ombragées sur substrat calcaire).
+Cette espèce est présente sur l'ensemble de l'Europe, au Maroc, en Algérie, ainsi que les pays bordant la mer Noire et la mer Caspienne. En France, elle est assez rare, plutôt présente dans le Sud-Est.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est classée « préoccupation mineure » au niveau national[4] et « en danger critique d'extinction » en Pays de la Loire et Haute-Normandie, « en danger » en Île-de-France, « vulnérable » en région Centre et « préoccupation mineure » dans les autres circonscriptions[5].
-C. rubra est considérée comme « éteinte » aux Pays-Bas[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est classée « préoccupation mineure » au niveau national et « en danger critique d'extinction » en Pays de la Loire et Haute-Normandie, « en danger » en Île-de-France, « vulnérable » en région Centre et « préoccupation mineure » dans les autres circonscriptions.
+C. rubra est considérée comme « éteinte » aux Pays-Bas
 </t>
         </is>
       </c>
